--- a/Second semester/neural network/HW1/lbl4.xlsx
+++ b/Second semester/neural network/HW1/lbl4.xlsx
@@ -1439,7 +1439,7 @@
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:1">
@@ -1549,7 +1549,7 @@
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:1">
@@ -1859,7 +1859,7 @@
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:1">
@@ -1949,7 +1949,7 @@
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1">
@@ -2019,7 +2019,7 @@
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:1">
@@ -2134,7 +2134,7 @@
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1">
@@ -2179,7 +2179,7 @@
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:1">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:1">
@@ -2579,7 +2579,7 @@
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:1">
@@ -3974,27 +3974,27 @@
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:1">
@@ -4004,22 +4004,22 @@
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:1">
@@ -4034,7 +4034,7 @@
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:1">
@@ -4054,7 +4054,7 @@
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:1">
@@ -4069,7 +4069,7 @@
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:1">
@@ -4084,7 +4084,7 @@
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:1">
@@ -4099,7 +4099,7 @@
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:1">
@@ -4124,7 +4124,7 @@
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:1">
@@ -4164,7 +4164,7 @@
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:1">
@@ -4174,7 +4174,7 @@
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:1">
@@ -4204,17 +4204,17 @@
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:1">
@@ -4244,7 +4244,7 @@
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:1">
@@ -4254,12 +4254,12 @@
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:1">
@@ -4279,7 +4279,7 @@
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:1">
@@ -4289,7 +4289,7 @@
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:1">
@@ -4299,7 +4299,7 @@
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:1">
@@ -4324,7 +4324,7 @@
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:1">
@@ -4334,7 +4334,7 @@
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:1">
@@ -4354,7 +4354,7 @@
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:1">
@@ -4384,7 +4384,7 @@
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:1">
@@ -4399,7 +4399,7 @@
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:1">
@@ -4419,7 +4419,7 @@
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:1">
@@ -4464,7 +4464,7 @@
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:1">
@@ -4474,7 +4474,7 @@
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:1">
@@ -4484,12 +4484,12 @@
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:1">
@@ -4504,7 +4504,7 @@
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:1">
@@ -4514,7 +4514,7 @@
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:1">
@@ -4554,7 +4554,7 @@
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:1">
@@ -4564,7 +4564,7 @@
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:1">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:1">
@@ -4614,7 +4614,7 @@
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:1">
@@ -4639,12 +4639,12 @@
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:1">
@@ -4654,7 +4654,7 @@
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:1">
@@ -4674,7 +4674,7 @@
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:1">
@@ -4689,12 +4689,12 @@
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:1">
@@ -4759,12 +4759,12 @@
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:1">
@@ -4774,12 +4774,12 @@
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:1">
@@ -4794,7 +4794,7 @@
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:1">
@@ -4829,22 +4829,22 @@
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:1">
@@ -4854,32 +4854,32 @@
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:1">
@@ -4899,12 +4899,12 @@
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:1">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
@@ -5779,7 +5779,7 @@
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
@@ -6464,7 +6464,7 @@
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
@@ -6809,7 +6809,7 @@
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
@@ -6874,7 +6874,7 @@
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
@@ -7009,7 +7009,7 @@
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
@@ -7184,7 +7184,7 @@
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
@@ -7299,7 +7299,7 @@
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
@@ -7489,7 +7489,7 @@
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
@@ -8534,7 +8534,7 @@
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
@@ -8549,7 +8549,7 @@
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
@@ -8579,7 +8579,7 @@
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
@@ -8594,7 +8594,7 @@
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
@@ -8654,7 +8654,7 @@
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
@@ -8664,7 +8664,7 @@
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
@@ -8679,7 +8679,7 @@
     </row>
     <row r="1662" spans="1:1">
       <c r="A1662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1663" spans="1:1">
@@ -8704,17 +8704,17 @@
     </row>
     <row r="1667" spans="1:1">
       <c r="A1667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1668" spans="1:1">
       <c r="A1668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1669" spans="1:1">
       <c r="A1669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670" spans="1:1">
@@ -8729,7 +8729,7 @@
     </row>
     <row r="1672" spans="1:1">
       <c r="A1672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673" spans="1:1">
@@ -8759,7 +8759,7 @@
     </row>
     <row r="1678" spans="1:1">
       <c r="A1678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1679" spans="1:1">
@@ -8894,7 +8894,7 @@
     </row>
     <row r="1705" spans="1:1">
       <c r="A1705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706" spans="1:1">
@@ -8904,7 +8904,7 @@
     </row>
     <row r="1707" spans="1:1">
       <c r="A1707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1708" spans="1:1">
@@ -9019,7 +9019,7 @@
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
@@ -9049,7 +9049,7 @@
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
@@ -9064,7 +9064,7 @@
     </row>
     <row r="1739" spans="1:1">
       <c r="A1739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1740" spans="1:1">
@@ -9119,7 +9119,7 @@
     </row>
     <row r="1750" spans="1:1">
       <c r="A1750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1751" spans="1:1">
@@ -9149,7 +9149,7 @@
     </row>
     <row r="1756" spans="1:1">
       <c r="A1756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1757" spans="1:1">
@@ -9164,7 +9164,7 @@
     </row>
     <row r="1759" spans="1:1">
       <c r="A1759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1760" spans="1:1">
@@ -9179,7 +9179,7 @@
     </row>
     <row r="1762" spans="1:1">
       <c r="A1762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763" spans="1:1">
@@ -9199,7 +9199,7 @@
     </row>
     <row r="1766" spans="1:1">
       <c r="A1766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1767" spans="1:1">
@@ -9229,7 +9229,7 @@
     </row>
     <row r="1772" spans="1:1">
       <c r="A1772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1773" spans="1:1">
@@ -9259,7 +9259,7 @@
     </row>
     <row r="1778" spans="1:1">
       <c r="A1778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="1:1">
@@ -9269,7 +9269,7 @@
     </row>
     <row r="1780" spans="1:1">
       <c r="A1780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781" spans="1:1">
@@ -9279,7 +9279,7 @@
     </row>
     <row r="1782" spans="1:1">
       <c r="A1782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1783" spans="1:1">
@@ -9339,7 +9339,7 @@
     </row>
     <row r="1794" spans="1:1">
       <c r="A1794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1795" spans="1:1">
@@ -9354,22 +9354,22 @@
     </row>
     <row r="1797" spans="1:1">
       <c r="A1797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1798" spans="1:1">
       <c r="A1798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1799" spans="1:1">
       <c r="A1799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1800" spans="1:1">
       <c r="A1800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1801" spans="1:1">
